--- a/test-data/Rate_Card_Test.xlsx
+++ b/test-data/Rate_Card_Test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,36 +428,45 @@
         <v>u_icb_flag</v>
       </c>
       <c r="I1" t="str">
+        <v>u_all_ibx</v>
+      </c>
+      <c r="J1" t="str">
+        <v>u_ibxs</v>
+      </c>
+      <c r="K1" t="str">
+        <v>u_excluded_ibxs</v>
+      </c>
+      <c r="L1" t="str">
         <v>u_pricekva</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>u_minimum_cabinet_density</v>
       </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>u_rate</v>
       </c>
-      <c r="L1" t="str">
+      <c r="O1" t="str">
         <v>u_amps</v>
       </c>
-      <c r="M1" t="str">
+      <c r="P1" t="str">
         <v>u_volt</v>
       </c>
-      <c r="N1" t="str">
+      <c r="Q1" t="str">
         <v>u_nrc</v>
       </c>
-      <c r="O1" t="str">
+      <c r="R1" t="str">
         <v>u_std_ntp_non_red</v>
       </c>
-      <c r="P1" t="str">
+      <c r="S1" t="str">
         <v>u_std_ptp_non_red</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="T1" t="str">
         <v>u_ent_ntp_non_red</v>
       </c>
-      <c r="R1" t="str">
+      <c r="U1" t="str">
         <v>u_ent_ptp_non_red</v>
       </c>
-      <c r="S1" t="str">
+      <c r="V1" t="str">
         <v>IBX</v>
       </c>
     </row>
@@ -478,29 +487,29 @@
         <v>Americas</v>
       </c>
       <c r="F2" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G2" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="str">
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <v/>
+      </c>
+      <c r="L2">
         <v>12</v>
       </c>
-      <c r="J2" t="str">
+      <c r="M2" t="str">
         <v>Standard</v>
       </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
       <c r="N2" t="str">
         <v/>
       </c>
@@ -517,6 +526,15 @@
         <v/>
       </c>
       <c r="S2" t="str">
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <v/>
+      </c>
+      <c r="V2" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -537,29 +555,29 @@
         <v>Americas</v>
       </c>
       <c r="F3" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G3" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3">
         <v>15</v>
       </c>
-      <c r="J3" t="str">
+      <c r="M3" t="str">
         <v>High</v>
       </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v/>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
       <c r="N3" t="str">
         <v/>
       </c>
@@ -576,6 +594,15 @@
         <v/>
       </c>
       <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -596,38 +623,38 @@
         <v>EMEA</v>
       </c>
       <c r="F4" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G4" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="str">
-        <v/>
+      <c r="I4" t="b">
+        <v>1</v>
       </c>
       <c r="J4" t="str">
         <v/>
       </c>
-      <c r="K4">
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4">
         <v>500</v>
       </c>
-      <c r="L4" t="str">
+      <c r="O4" t="str">
         <v>30</v>
       </c>
-      <c r="M4" t="str">
+      <c r="P4" t="str">
         <v>208</v>
       </c>
-      <c r="N4" t="str">
-        <v/>
-      </c>
-      <c r="O4" t="str">
-        <v/>
-      </c>
-      <c r="P4" t="str">
-        <v/>
-      </c>
       <c r="Q4" t="str">
         <v/>
       </c>
@@ -635,6 +662,15 @@
         <v/>
       </c>
       <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -655,29 +691,29 @@
         <v>Americas</v>
       </c>
       <c r="F5" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G5" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5">
         <v>18</v>
       </c>
-      <c r="J5" t="str">
+      <c r="M5" t="str">
         <v>Standard</v>
       </c>
-      <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v/>
-      </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
       <c r="N5" t="str">
         <v/>
       </c>
@@ -694,6 +730,15 @@
         <v/>
       </c>
       <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -714,16 +759,16 @@
         <v>Americas</v>
       </c>
       <c r="F6" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G6" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
-      <c r="I6" t="str">
-        <v/>
+      <c r="I6" t="b">
+        <v>1</v>
       </c>
       <c r="J6" t="str">
         <v/>
@@ -737,22 +782,31 @@
       <c r="M6" t="str">
         <v/>
       </c>
-      <c r="N6">
+      <c r="N6" t="str">
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
+      </c>
+      <c r="Q6">
         <v>200</v>
       </c>
-      <c r="O6" t="str">
-        <v/>
-      </c>
-      <c r="P6" t="str">
-        <v/>
-      </c>
-      <c r="Q6" t="str">
-        <v/>
-      </c>
       <c r="R6" t="str">
         <v/>
       </c>
       <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -773,16 +827,16 @@
         <v>EMEA</v>
       </c>
       <c r="F7" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G7" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
-      <c r="I7" t="str">
-        <v/>
+      <c r="I7" t="b">
+        <v>1</v>
       </c>
       <c r="J7" t="str">
         <v/>
@@ -796,22 +850,31 @@
       <c r="M7" t="str">
         <v/>
       </c>
-      <c r="N7">
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7">
         <v>250</v>
       </c>
-      <c r="O7" t="str">
-        <v/>
-      </c>
-      <c r="P7" t="str">
-        <v/>
-      </c>
-      <c r="Q7" t="str">
-        <v/>
-      </c>
       <c r="R7" t="str">
         <v/>
       </c>
       <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -832,16 +895,16 @@
         <v>Americas</v>
       </c>
       <c r="F8" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G8" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
-      <c r="I8" t="str">
-        <v/>
+      <c r="I8" t="b">
+        <v>1</v>
       </c>
       <c r="J8" t="str">
         <v/>
@@ -855,22 +918,31 @@
       <c r="M8" t="str">
         <v/>
       </c>
-      <c r="N8">
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8">
         <v>180</v>
       </c>
-      <c r="O8" t="str">
-        <v/>
-      </c>
-      <c r="P8" t="str">
-        <v/>
-      </c>
-      <c r="Q8" t="str">
-        <v/>
-      </c>
       <c r="R8" t="str">
         <v/>
       </c>
       <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -891,32 +963,32 @@
         <v>Americas</v>
       </c>
       <c r="F9" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G9" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
-      <c r="I9" t="str">
-        <v/>
+      <c r="I9" t="b">
+        <v>1</v>
       </c>
       <c r="J9" t="str">
         <v/>
       </c>
-      <c r="K9">
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9">
         <v>150</v>
       </c>
-      <c r="L9" t="str">
-        <v/>
-      </c>
-      <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
       <c r="O9" t="str">
         <v/>
       </c>
@@ -930,6 +1002,15 @@
         <v/>
       </c>
       <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -950,16 +1031,16 @@
         <v>EMEA</v>
       </c>
       <c r="F10" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G10" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
-      <c r="I10" t="str">
-        <v/>
+      <c r="I10" t="b">
+        <v>1</v>
       </c>
       <c r="J10" t="str">
         <v/>
@@ -973,22 +1054,31 @@
       <c r="M10" t="str">
         <v/>
       </c>
-      <c r="N10">
+      <c r="N10" t="str">
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v/>
+      </c>
+      <c r="Q10">
         <v>50</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>50</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>60</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>80</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>90</v>
       </c>
-      <c r="S10" t="str">
+      <c r="V10" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1009,29 +1099,29 @@
         <v>Americas</v>
       </c>
       <c r="F11" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G11" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11">
         <v>12</v>
       </c>
-      <c r="J11" t="str">
+      <c r="M11" t="str">
         <v>Standard</v>
       </c>
-      <c r="K11" t="str">
-        <v/>
-      </c>
-      <c r="L11" t="str">
-        <v/>
-      </c>
-      <c r="M11" t="str">
-        <v/>
-      </c>
       <c r="N11" t="str">
         <v/>
       </c>
@@ -1048,6 +1138,15 @@
         <v/>
       </c>
       <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1068,29 +1167,29 @@
         <v>Americas</v>
       </c>
       <c r="F12" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G12" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12">
         <v>15</v>
       </c>
-      <c r="J12" t="str">
+      <c r="M12" t="str">
         <v>High</v>
       </c>
-      <c r="K12" t="str">
-        <v/>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v/>
-      </c>
       <c r="N12" t="str">
         <v/>
       </c>
@@ -1107,6 +1206,15 @@
         <v/>
       </c>
       <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1127,38 +1235,38 @@
         <v>EMEA</v>
       </c>
       <c r="F13" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G13" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
-      <c r="I13" t="str">
-        <v/>
+      <c r="I13" t="b">
+        <v>1</v>
       </c>
       <c r="J13" t="str">
         <v/>
       </c>
-      <c r="K13">
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13">
         <v>500</v>
       </c>
-      <c r="L13" t="str">
+      <c r="O13" t="str">
         <v>30</v>
       </c>
-      <c r="M13" t="str">
+      <c r="P13" t="str">
         <v>208</v>
       </c>
-      <c r="N13" t="str">
-        <v/>
-      </c>
-      <c r="O13" t="str">
-        <v/>
-      </c>
-      <c r="P13" t="str">
-        <v/>
-      </c>
       <c r="Q13" t="str">
         <v/>
       </c>
@@ -1166,6 +1274,15 @@
         <v/>
       </c>
       <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1186,29 +1303,29 @@
         <v>Americas</v>
       </c>
       <c r="F14" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G14" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14">
         <v>18</v>
       </c>
-      <c r="J14" t="str">
+      <c r="M14" t="str">
         <v>Standard</v>
       </c>
-      <c r="K14" t="str">
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <v/>
-      </c>
       <c r="N14" t="str">
         <v/>
       </c>
@@ -1225,6 +1342,15 @@
         <v/>
       </c>
       <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1245,16 +1371,16 @@
         <v>Americas</v>
       </c>
       <c r="F15" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G15" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="str">
-        <v/>
+      <c r="I15" t="b">
+        <v>1</v>
       </c>
       <c r="J15" t="str">
         <v/>
@@ -1268,22 +1394,31 @@
       <c r="M15" t="str">
         <v/>
       </c>
-      <c r="N15">
+      <c r="N15" t="str">
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="Q15">
         <v>200</v>
       </c>
-      <c r="O15" t="str">
-        <v/>
-      </c>
-      <c r="P15" t="str">
-        <v/>
-      </c>
-      <c r="Q15" t="str">
-        <v/>
-      </c>
       <c r="R15" t="str">
         <v/>
       </c>
       <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1304,16 +1439,16 @@
         <v>EMEA</v>
       </c>
       <c r="F16" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G16" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
-      <c r="I16" t="str">
-        <v/>
+      <c r="I16" t="b">
+        <v>1</v>
       </c>
       <c r="J16" t="str">
         <v/>
@@ -1327,22 +1462,31 @@
       <c r="M16" t="str">
         <v/>
       </c>
-      <c r="N16">
+      <c r="N16" t="str">
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
+      </c>
+      <c r="Q16">
         <v>250</v>
       </c>
-      <c r="O16" t="str">
-        <v/>
-      </c>
-      <c r="P16" t="str">
-        <v/>
-      </c>
-      <c r="Q16" t="str">
-        <v/>
-      </c>
       <c r="R16" t="str">
         <v/>
       </c>
       <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1363,16 +1507,16 @@
         <v>Americas</v>
       </c>
       <c r="F17" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G17" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
-      <c r="I17" t="str">
-        <v/>
+      <c r="I17" t="b">
+        <v>1</v>
       </c>
       <c r="J17" t="str">
         <v/>
@@ -1386,22 +1530,31 @@
       <c r="M17" t="str">
         <v/>
       </c>
-      <c r="N17">
+      <c r="N17" t="str">
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v/>
+      </c>
+      <c r="Q17">
         <v>180</v>
       </c>
-      <c r="O17" t="str">
-        <v/>
-      </c>
-      <c r="P17" t="str">
-        <v/>
-      </c>
-      <c r="Q17" t="str">
-        <v/>
-      </c>
       <c r="R17" t="str">
         <v/>
       </c>
       <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1422,32 +1575,32 @@
         <v>Americas</v>
       </c>
       <c r="F18" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G18" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="I18" t="str">
-        <v/>
+      <c r="I18" t="b">
+        <v>1</v>
       </c>
       <c r="J18" t="str">
         <v/>
       </c>
-      <c r="K18">
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18">
         <v>150</v>
       </c>
-      <c r="L18" t="str">
-        <v/>
-      </c>
-      <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18" t="str">
-        <v/>
-      </c>
       <c r="O18" t="str">
         <v/>
       </c>
@@ -1461,6 +1614,15 @@
         <v/>
       </c>
       <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1481,16 +1643,16 @@
         <v>EMEA</v>
       </c>
       <c r="F19" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G19" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
-      <c r="I19" t="str">
-        <v/>
+      <c r="I19" t="b">
+        <v>1</v>
       </c>
       <c r="J19" t="str">
         <v/>
@@ -1504,22 +1666,31 @@
       <c r="M19" t="str">
         <v/>
       </c>
-      <c r="N19">
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19">
         <v>50</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>50</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <v>60</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>80</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>90</v>
       </c>
-      <c r="S19" t="str">
+      <c r="V19" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1540,29 +1711,29 @@
         <v>Americas</v>
       </c>
       <c r="F20" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G20" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+      <c r="K20" t="str">
+        <v/>
+      </c>
+      <c r="L20">
         <v>12</v>
       </c>
-      <c r="J20" t="str">
+      <c r="M20" t="str">
         <v>Standard</v>
       </c>
-      <c r="K20" t="str">
-        <v/>
-      </c>
-      <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
       <c r="N20" t="str">
         <v/>
       </c>
@@ -1579,6 +1750,15 @@
         <v/>
       </c>
       <c r="S20" t="str">
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1599,29 +1779,29 @@
         <v>Americas</v>
       </c>
       <c r="F21" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G21" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+      <c r="K21" t="str">
+        <v/>
+      </c>
+      <c r="L21">
         <v>15</v>
       </c>
-      <c r="J21" t="str">
+      <c r="M21" t="str">
         <v>High</v>
       </c>
-      <c r="K21" t="str">
-        <v/>
-      </c>
-      <c r="L21" t="str">
-        <v/>
-      </c>
-      <c r="M21" t="str">
-        <v/>
-      </c>
       <c r="N21" t="str">
         <v/>
       </c>
@@ -1638,6 +1818,15 @@
         <v/>
       </c>
       <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1658,38 +1847,38 @@
         <v>EMEA</v>
       </c>
       <c r="F22" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G22" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="I22" t="str">
-        <v/>
+      <c r="I22" t="b">
+        <v>1</v>
       </c>
       <c r="J22" t="str">
         <v/>
       </c>
-      <c r="K22">
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22">
         <v>500</v>
       </c>
-      <c r="L22" t="str">
+      <c r="O22" t="str">
         <v>30</v>
       </c>
-      <c r="M22" t="str">
+      <c r="P22" t="str">
         <v>208</v>
       </c>
-      <c r="N22" t="str">
-        <v/>
-      </c>
-      <c r="O22" t="str">
-        <v/>
-      </c>
-      <c r="P22" t="str">
-        <v/>
-      </c>
       <c r="Q22" t="str">
         <v/>
       </c>
@@ -1697,6 +1886,15 @@
         <v/>
       </c>
       <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <v/>
+      </c>
+      <c r="V22" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1717,29 +1915,29 @@
         <v>Americas</v>
       </c>
       <c r="F23" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G23" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23">
         <v>18</v>
       </c>
-      <c r="J23" t="str">
+      <c r="M23" t="str">
         <v>Standard</v>
       </c>
-      <c r="K23" t="str">
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <v/>
-      </c>
-      <c r="M23" t="str">
-        <v/>
-      </c>
       <c r="N23" t="str">
         <v/>
       </c>
@@ -1756,6 +1954,15 @@
         <v/>
       </c>
       <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1776,16 +1983,16 @@
         <v>Americas</v>
       </c>
       <c r="F24" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G24" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
-      <c r="I24" t="str">
-        <v/>
+      <c r="I24" t="b">
+        <v>1</v>
       </c>
       <c r="J24" t="str">
         <v/>
@@ -1799,22 +2006,31 @@
       <c r="M24" t="str">
         <v/>
       </c>
-      <c r="N24">
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24">
         <v>200</v>
       </c>
-      <c r="O24" t="str">
-        <v/>
-      </c>
-      <c r="P24" t="str">
-        <v/>
-      </c>
-      <c r="Q24" t="str">
-        <v/>
-      </c>
       <c r="R24" t="str">
         <v/>
       </c>
       <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1835,16 +2051,16 @@
         <v>EMEA</v>
       </c>
       <c r="F25" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G25" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
-      <c r="I25" t="str">
-        <v/>
+      <c r="I25" t="b">
+        <v>1</v>
       </c>
       <c r="J25" t="str">
         <v/>
@@ -1858,22 +2074,31 @@
       <c r="M25" t="str">
         <v/>
       </c>
-      <c r="N25">
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25">
         <v>250</v>
       </c>
-      <c r="O25" t="str">
-        <v/>
-      </c>
-      <c r="P25" t="str">
-        <v/>
-      </c>
-      <c r="Q25" t="str">
-        <v/>
-      </c>
       <c r="R25" t="str">
         <v/>
       </c>
       <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1894,16 +2119,16 @@
         <v>Americas</v>
       </c>
       <c r="F26" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G26" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
-      <c r="I26" t="str">
-        <v/>
+      <c r="I26" t="b">
+        <v>1</v>
       </c>
       <c r="J26" t="str">
         <v/>
@@ -1917,22 +2142,31 @@
       <c r="M26" t="str">
         <v/>
       </c>
-      <c r="N26">
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26">
         <v>180</v>
       </c>
-      <c r="O26" t="str">
-        <v/>
-      </c>
-      <c r="P26" t="str">
-        <v/>
-      </c>
-      <c r="Q26" t="str">
-        <v/>
-      </c>
       <c r="R26" t="str">
         <v/>
       </c>
       <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1953,32 +2187,32 @@
         <v>Americas</v>
       </c>
       <c r="F27" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G27" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
-      <c r="I27" t="str">
-        <v/>
+      <c r="I27" t="b">
+        <v>1</v>
       </c>
       <c r="J27" t="str">
         <v/>
       </c>
-      <c r="K27">
+      <c r="K27" t="str">
+        <v/>
+      </c>
+      <c r="L27" t="str">
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <v/>
+      </c>
+      <c r="N27">
         <v>150</v>
       </c>
-      <c r="L27" t="str">
-        <v/>
-      </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-      <c r="N27" t="str">
-        <v/>
-      </c>
       <c r="O27" t="str">
         <v/>
       </c>
@@ -1992,6 +2226,15 @@
         <v/>
       </c>
       <c r="S27" t="str">
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <v/>
+      </c>
+      <c r="V27" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2012,16 +2255,16 @@
         <v>EMEA</v>
       </c>
       <c r="F28" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G28" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
-      <c r="I28" t="str">
-        <v/>
+      <c r="I28" t="b">
+        <v>1</v>
       </c>
       <c r="J28" t="str">
         <v/>
@@ -2035,22 +2278,31 @@
       <c r="M28" t="str">
         <v/>
       </c>
-      <c r="N28">
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+      <c r="Q28">
         <v>50</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>50</v>
       </c>
-      <c r="P28">
+      <c r="S28">
         <v>60</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>80</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>90</v>
       </c>
-      <c r="S28" t="str">
+      <c r="V28" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2071,29 +2323,29 @@
         <v>Americas</v>
       </c>
       <c r="F29" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G29" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29">
         <v>12</v>
       </c>
-      <c r="J29" t="str">
+      <c r="M29" t="str">
         <v>Standard</v>
       </c>
-      <c r="K29" t="str">
-        <v/>
-      </c>
-      <c r="L29" t="str">
-        <v/>
-      </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
       <c r="N29" t="str">
         <v/>
       </c>
@@ -2110,6 +2362,15 @@
         <v/>
       </c>
       <c r="S29" t="str">
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <v/>
+      </c>
+      <c r="V29" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2130,29 +2391,29 @@
         <v>Americas</v>
       </c>
       <c r="F30" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G30" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30">
         <v>15</v>
       </c>
-      <c r="J30" t="str">
+      <c r="M30" t="str">
         <v>High</v>
       </c>
-      <c r="K30" t="str">
-        <v/>
-      </c>
-      <c r="L30" t="str">
-        <v/>
-      </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
       <c r="N30" t="str">
         <v/>
       </c>
@@ -2169,6 +2430,15 @@
         <v/>
       </c>
       <c r="S30" t="str">
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <v/>
+      </c>
+      <c r="V30" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2189,38 +2459,38 @@
         <v>EMEA</v>
       </c>
       <c r="F31" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G31" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
-      <c r="I31" t="str">
-        <v/>
+      <c r="I31" t="b">
+        <v>1</v>
       </c>
       <c r="J31" t="str">
         <v/>
       </c>
-      <c r="K31">
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <v/>
+      </c>
+      <c r="N31">
         <v>500</v>
       </c>
-      <c r="L31" t="str">
+      <c r="O31" t="str">
         <v>30</v>
       </c>
-      <c r="M31" t="str">
+      <c r="P31" t="str">
         <v>208</v>
       </c>
-      <c r="N31" t="str">
-        <v/>
-      </c>
-      <c r="O31" t="str">
-        <v/>
-      </c>
-      <c r="P31" t="str">
-        <v/>
-      </c>
       <c r="Q31" t="str">
         <v/>
       </c>
@@ -2228,6 +2498,15 @@
         <v/>
       </c>
       <c r="S31" t="str">
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <v/>
+      </c>
+      <c r="V31" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2248,29 +2527,29 @@
         <v>Americas</v>
       </c>
       <c r="F32" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G32" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+      <c r="K32" t="str">
+        <v/>
+      </c>
+      <c r="L32">
         <v>18</v>
       </c>
-      <c r="J32" t="str">
+      <c r="M32" t="str">
         <v>Standard</v>
       </c>
-      <c r="K32" t="str">
-        <v/>
-      </c>
-      <c r="L32" t="str">
-        <v/>
-      </c>
-      <c r="M32" t="str">
-        <v/>
-      </c>
       <c r="N32" t="str">
         <v/>
       </c>
@@ -2287,6 +2566,15 @@
         <v/>
       </c>
       <c r="S32" t="str">
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <v/>
+      </c>
+      <c r="V32" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2307,16 +2595,16 @@
         <v>Americas</v>
       </c>
       <c r="F33" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G33" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
-      <c r="I33" t="str">
-        <v/>
+      <c r="I33" t="b">
+        <v>1</v>
       </c>
       <c r="J33" t="str">
         <v/>
@@ -2330,22 +2618,31 @@
       <c r="M33" t="str">
         <v/>
       </c>
-      <c r="N33">
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+      <c r="Q33">
         <v>200</v>
       </c>
-      <c r="O33" t="str">
-        <v/>
-      </c>
-      <c r="P33" t="str">
-        <v/>
-      </c>
-      <c r="Q33" t="str">
-        <v/>
-      </c>
       <c r="R33" t="str">
         <v/>
       </c>
       <c r="S33" t="str">
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <v/>
+      </c>
+      <c r="V33" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2366,16 +2663,16 @@
         <v>EMEA</v>
       </c>
       <c r="F34" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G34" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
-      <c r="I34" t="str">
-        <v/>
+      <c r="I34" t="b">
+        <v>1</v>
       </c>
       <c r="J34" t="str">
         <v/>
@@ -2389,22 +2686,31 @@
       <c r="M34" t="str">
         <v/>
       </c>
-      <c r="N34">
+      <c r="N34" t="str">
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+      <c r="Q34">
         <v>250</v>
       </c>
-      <c r="O34" t="str">
-        <v/>
-      </c>
-      <c r="P34" t="str">
-        <v/>
-      </c>
-      <c r="Q34" t="str">
-        <v/>
-      </c>
       <c r="R34" t="str">
         <v/>
       </c>
       <c r="S34" t="str">
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <v/>
+      </c>
+      <c r="V34" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2425,16 +2731,16 @@
         <v>Americas</v>
       </c>
       <c r="F35" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G35" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
-      <c r="I35" t="str">
-        <v/>
+      <c r="I35" t="b">
+        <v>1</v>
       </c>
       <c r="J35" t="str">
         <v/>
@@ -2448,22 +2754,31 @@
       <c r="M35" t="str">
         <v/>
       </c>
-      <c r="N35">
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+      <c r="Q35">
         <v>180</v>
       </c>
-      <c r="O35" t="str">
-        <v/>
-      </c>
-      <c r="P35" t="str">
-        <v/>
-      </c>
-      <c r="Q35" t="str">
-        <v/>
-      </c>
       <c r="R35" t="str">
         <v/>
       </c>
       <c r="S35" t="str">
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <v/>
+      </c>
+      <c r="V35" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2484,32 +2799,32 @@
         <v>Americas</v>
       </c>
       <c r="F36" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G36" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
-      <c r="I36" t="str">
-        <v/>
+      <c r="I36" t="b">
+        <v>1</v>
       </c>
       <c r="J36" t="str">
         <v/>
       </c>
-      <c r="K36">
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <v/>
+      </c>
+      <c r="N36">
         <v>150</v>
       </c>
-      <c r="L36" t="str">
-        <v/>
-      </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-      <c r="N36" t="str">
-        <v/>
-      </c>
       <c r="O36" t="str">
         <v/>
       </c>
@@ -2523,6 +2838,15 @@
         <v/>
       </c>
       <c r="S36" t="str">
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <v/>
+      </c>
+      <c r="V36" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2543,16 +2867,16 @@
         <v>EMEA</v>
       </c>
       <c r="F37" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G37" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
-      <c r="I37" t="str">
-        <v/>
+      <c r="I37" t="b">
+        <v>1</v>
       </c>
       <c r="J37" t="str">
         <v/>
@@ -2566,22 +2890,31 @@
       <c r="M37" t="str">
         <v/>
       </c>
-      <c r="N37">
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v/>
+      </c>
+      <c r="Q37">
         <v>50</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>50</v>
       </c>
-      <c r="P37">
+      <c r="S37">
         <v>60</v>
       </c>
-      <c r="Q37">
+      <c r="T37">
         <v>80</v>
       </c>
-      <c r="R37">
+      <c r="U37">
         <v>90</v>
       </c>
-      <c r="S37" t="str">
+      <c r="V37" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2602,29 +2935,29 @@
         <v>Americas</v>
       </c>
       <c r="F38" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G38" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38">
         <v>12</v>
       </c>
-      <c r="J38" t="str">
+      <c r="M38" t="str">
         <v>Standard</v>
       </c>
-      <c r="K38" t="str">
-        <v/>
-      </c>
-      <c r="L38" t="str">
-        <v/>
-      </c>
-      <c r="M38" t="str">
-        <v/>
-      </c>
       <c r="N38" t="str">
         <v/>
       </c>
@@ -2641,6 +2974,15 @@
         <v/>
       </c>
       <c r="S38" t="str">
+        <v/>
+      </c>
+      <c r="T38" t="str">
+        <v/>
+      </c>
+      <c r="U38" t="str">
+        <v/>
+      </c>
+      <c r="V38" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2661,29 +3003,29 @@
         <v>Americas</v>
       </c>
       <c r="F39" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G39" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39">
         <v>15</v>
       </c>
-      <c r="J39" t="str">
+      <c r="M39" t="str">
         <v>High</v>
       </c>
-      <c r="K39" t="str">
-        <v/>
-      </c>
-      <c r="L39" t="str">
-        <v/>
-      </c>
-      <c r="M39" t="str">
-        <v/>
-      </c>
       <c r="N39" t="str">
         <v/>
       </c>
@@ -2700,6 +3042,15 @@
         <v/>
       </c>
       <c r="S39" t="str">
+        <v/>
+      </c>
+      <c r="T39" t="str">
+        <v/>
+      </c>
+      <c r="U39" t="str">
+        <v/>
+      </c>
+      <c r="V39" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2720,38 +3071,38 @@
         <v>EMEA</v>
       </c>
       <c r="F40" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G40" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
-      <c r="I40" t="str">
-        <v/>
+      <c r="I40" t="b">
+        <v>1</v>
       </c>
       <c r="J40" t="str">
         <v/>
       </c>
-      <c r="K40">
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <v/>
+      </c>
+      <c r="N40">
         <v>500</v>
       </c>
-      <c r="L40" t="str">
+      <c r="O40" t="str">
         <v>30</v>
       </c>
-      <c r="M40" t="str">
+      <c r="P40" t="str">
         <v>208</v>
       </c>
-      <c r="N40" t="str">
-        <v/>
-      </c>
-      <c r="O40" t="str">
-        <v/>
-      </c>
-      <c r="P40" t="str">
-        <v/>
-      </c>
       <c r="Q40" t="str">
         <v/>
       </c>
@@ -2759,6 +3110,15 @@
         <v/>
       </c>
       <c r="S40" t="str">
+        <v/>
+      </c>
+      <c r="T40" t="str">
+        <v/>
+      </c>
+      <c r="U40" t="str">
+        <v/>
+      </c>
+      <c r="V40" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2779,29 +3139,29 @@
         <v>Americas</v>
       </c>
       <c r="F41" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G41" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41">
         <v>18</v>
       </c>
-      <c r="J41" t="str">
+      <c r="M41" t="str">
         <v>Standard</v>
       </c>
-      <c r="K41" t="str">
-        <v/>
-      </c>
-      <c r="L41" t="str">
-        <v/>
-      </c>
-      <c r="M41" t="str">
-        <v/>
-      </c>
       <c r="N41" t="str">
         <v/>
       </c>
@@ -2818,6 +3178,15 @@
         <v/>
       </c>
       <c r="S41" t="str">
+        <v/>
+      </c>
+      <c r="T41" t="str">
+        <v/>
+      </c>
+      <c r="U41" t="str">
+        <v/>
+      </c>
+      <c r="V41" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2838,16 +3207,16 @@
         <v>Americas</v>
       </c>
       <c r="F42" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G42" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
-      <c r="I42" t="str">
-        <v/>
+      <c r="I42" t="b">
+        <v>1</v>
       </c>
       <c r="J42" t="str">
         <v/>
@@ -2861,22 +3230,31 @@
       <c r="M42" t="str">
         <v/>
       </c>
-      <c r="N42">
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v/>
+      </c>
+      <c r="Q42">
         <v>200</v>
       </c>
-      <c r="O42" t="str">
-        <v/>
-      </c>
-      <c r="P42" t="str">
-        <v/>
-      </c>
-      <c r="Q42" t="str">
-        <v/>
-      </c>
       <c r="R42" t="str">
         <v/>
       </c>
       <c r="S42" t="str">
+        <v/>
+      </c>
+      <c r="T42" t="str">
+        <v/>
+      </c>
+      <c r="U42" t="str">
+        <v/>
+      </c>
+      <c r="V42" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2897,16 +3275,16 @@
         <v>EMEA</v>
       </c>
       <c r="F43" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G43" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
-      <c r="I43" t="str">
-        <v/>
+      <c r="I43" t="b">
+        <v>1</v>
       </c>
       <c r="J43" t="str">
         <v/>
@@ -2920,22 +3298,31 @@
       <c r="M43" t="str">
         <v/>
       </c>
-      <c r="N43">
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <v/>
+      </c>
+      <c r="Q43">
         <v>250</v>
       </c>
-      <c r="O43" t="str">
-        <v/>
-      </c>
-      <c r="P43" t="str">
-        <v/>
-      </c>
-      <c r="Q43" t="str">
-        <v/>
-      </c>
       <c r="R43" t="str">
         <v/>
       </c>
       <c r="S43" t="str">
+        <v/>
+      </c>
+      <c r="T43" t="str">
+        <v/>
+      </c>
+      <c r="U43" t="str">
+        <v/>
+      </c>
+      <c r="V43" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2956,16 +3343,16 @@
         <v>Americas</v>
       </c>
       <c r="F44" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G44" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
-      <c r="I44" t="str">
-        <v/>
+      <c r="I44" t="b">
+        <v>1</v>
       </c>
       <c r="J44" t="str">
         <v/>
@@ -2979,22 +3366,31 @@
       <c r="M44" t="str">
         <v/>
       </c>
-      <c r="N44">
+      <c r="N44" t="str">
+        <v/>
+      </c>
+      <c r="O44" t="str">
+        <v/>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+      <c r="Q44">
         <v>180</v>
       </c>
-      <c r="O44" t="str">
-        <v/>
-      </c>
-      <c r="P44" t="str">
-        <v/>
-      </c>
-      <c r="Q44" t="str">
-        <v/>
-      </c>
       <c r="R44" t="str">
         <v/>
       </c>
       <c r="S44" t="str">
+        <v/>
+      </c>
+      <c r="T44" t="str">
+        <v/>
+      </c>
+      <c r="U44" t="str">
+        <v/>
+      </c>
+      <c r="V44" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3015,32 +3411,32 @@
         <v>Americas</v>
       </c>
       <c r="F45" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G45" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
-      <c r="I45" t="str">
-        <v/>
+      <c r="I45" t="b">
+        <v>1</v>
       </c>
       <c r="J45" t="str">
         <v/>
       </c>
-      <c r="K45">
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <v/>
+      </c>
+      <c r="N45">
         <v>150</v>
       </c>
-      <c r="L45" t="str">
-        <v/>
-      </c>
-      <c r="M45" t="str">
-        <v/>
-      </c>
-      <c r="N45" t="str">
-        <v/>
-      </c>
       <c r="O45" t="str">
         <v/>
       </c>
@@ -3054,6 +3450,15 @@
         <v/>
       </c>
       <c r="S45" t="str">
+        <v/>
+      </c>
+      <c r="T45" t="str">
+        <v/>
+      </c>
+      <c r="U45" t="str">
+        <v/>
+      </c>
+      <c r="V45" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3074,16 +3479,16 @@
         <v>EMEA</v>
       </c>
       <c r="F46" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G46" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
-      <c r="I46" t="str">
-        <v/>
+      <c r="I46" t="b">
+        <v>1</v>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -3097,22 +3502,31 @@
       <c r="M46" t="str">
         <v/>
       </c>
-      <c r="N46">
+      <c r="N46" t="str">
+        <v/>
+      </c>
+      <c r="O46" t="str">
+        <v/>
+      </c>
+      <c r="P46" t="str">
+        <v/>
+      </c>
+      <c r="Q46">
         <v>50</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>50</v>
       </c>
-      <c r="P46">
+      <c r="S46">
         <v>60</v>
       </c>
-      <c r="Q46">
+      <c r="T46">
         <v>80</v>
       </c>
-      <c r="R46">
+      <c r="U46">
         <v>90</v>
       </c>
-      <c r="S46" t="str">
+      <c r="V46" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3133,29 +3547,29 @@
         <v>Americas</v>
       </c>
       <c r="F47" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G47" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+      <c r="K47" t="str">
+        <v/>
+      </c>
+      <c r="L47">
         <v>12</v>
       </c>
-      <c r="J47" t="str">
+      <c r="M47" t="str">
         <v>Standard</v>
       </c>
-      <c r="K47" t="str">
-        <v/>
-      </c>
-      <c r="L47" t="str">
-        <v/>
-      </c>
-      <c r="M47" t="str">
-        <v/>
-      </c>
       <c r="N47" t="str">
         <v/>
       </c>
@@ -3172,6 +3586,15 @@
         <v/>
       </c>
       <c r="S47" t="str">
+        <v/>
+      </c>
+      <c r="T47" t="str">
+        <v/>
+      </c>
+      <c r="U47" t="str">
+        <v/>
+      </c>
+      <c r="V47" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3192,29 +3615,29 @@
         <v>Americas</v>
       </c>
       <c r="F48" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G48" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+      <c r="K48" t="str">
+        <v/>
+      </c>
+      <c r="L48">
         <v>15</v>
       </c>
-      <c r="J48" t="str">
+      <c r="M48" t="str">
         <v>High</v>
       </c>
-      <c r="K48" t="str">
-        <v/>
-      </c>
-      <c r="L48" t="str">
-        <v/>
-      </c>
-      <c r="M48" t="str">
-        <v/>
-      </c>
       <c r="N48" t="str">
         <v/>
       </c>
@@ -3231,6 +3654,15 @@
         <v/>
       </c>
       <c r="S48" t="str">
+        <v/>
+      </c>
+      <c r="T48" t="str">
+        <v/>
+      </c>
+      <c r="U48" t="str">
+        <v/>
+      </c>
+      <c r="V48" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3251,38 +3683,38 @@
         <v>EMEA</v>
       </c>
       <c r="F49" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G49" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
-      <c r="I49" t="str">
-        <v/>
+      <c r="I49" t="b">
+        <v>1</v>
       </c>
       <c r="J49" t="str">
         <v/>
       </c>
-      <c r="K49">
+      <c r="K49" t="str">
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <v/>
+      </c>
+      <c r="N49">
         <v>500</v>
       </c>
-      <c r="L49" t="str">
+      <c r="O49" t="str">
         <v>30</v>
       </c>
-      <c r="M49" t="str">
+      <c r="P49" t="str">
         <v>208</v>
       </c>
-      <c r="N49" t="str">
-        <v/>
-      </c>
-      <c r="O49" t="str">
-        <v/>
-      </c>
-      <c r="P49" t="str">
-        <v/>
-      </c>
       <c r="Q49" t="str">
         <v/>
       </c>
@@ -3290,6 +3722,15 @@
         <v/>
       </c>
       <c r="S49" t="str">
+        <v/>
+      </c>
+      <c r="T49" t="str">
+        <v/>
+      </c>
+      <c r="U49" t="str">
+        <v/>
+      </c>
+      <c r="V49" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3310,29 +3751,29 @@
         <v>Americas</v>
       </c>
       <c r="F50" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G50" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+      <c r="K50" t="str">
+        <v/>
+      </c>
+      <c r="L50">
         <v>18</v>
       </c>
-      <c r="J50" t="str">
+      <c r="M50" t="str">
         <v>Standard</v>
       </c>
-      <c r="K50" t="str">
-        <v/>
-      </c>
-      <c r="L50" t="str">
-        <v/>
-      </c>
-      <c r="M50" t="str">
-        <v/>
-      </c>
       <c r="N50" t="str">
         <v/>
       </c>
@@ -3349,6 +3790,15 @@
         <v/>
       </c>
       <c r="S50" t="str">
+        <v/>
+      </c>
+      <c r="T50" t="str">
+        <v/>
+      </c>
+      <c r="U50" t="str">
+        <v/>
+      </c>
+      <c r="V50" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3369,16 +3819,16 @@
         <v>Americas</v>
       </c>
       <c r="F51" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G51" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
-      <c r="I51" t="str">
-        <v/>
+      <c r="I51" t="b">
+        <v>1</v>
       </c>
       <c r="J51" t="str">
         <v/>
@@ -3392,22 +3842,31 @@
       <c r="M51" t="str">
         <v/>
       </c>
-      <c r="N51">
+      <c r="N51" t="str">
+        <v/>
+      </c>
+      <c r="O51" t="str">
+        <v/>
+      </c>
+      <c r="P51" t="str">
+        <v/>
+      </c>
+      <c r="Q51">
         <v>200</v>
       </c>
-      <c r="O51" t="str">
-        <v/>
-      </c>
-      <c r="P51" t="str">
-        <v/>
-      </c>
-      <c r="Q51" t="str">
-        <v/>
-      </c>
       <c r="R51" t="str">
         <v/>
       </c>
       <c r="S51" t="str">
+        <v/>
+      </c>
+      <c r="T51" t="str">
+        <v/>
+      </c>
+      <c r="U51" t="str">
+        <v/>
+      </c>
+      <c r="V51" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3428,16 +3887,16 @@
         <v>EMEA</v>
       </c>
       <c r="F52" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G52" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
-      <c r="I52" t="str">
-        <v/>
+      <c r="I52" t="b">
+        <v>1</v>
       </c>
       <c r="J52" t="str">
         <v/>
@@ -3451,22 +3910,31 @@
       <c r="M52" t="str">
         <v/>
       </c>
-      <c r="N52">
+      <c r="N52" t="str">
+        <v/>
+      </c>
+      <c r="O52" t="str">
+        <v/>
+      </c>
+      <c r="P52" t="str">
+        <v/>
+      </c>
+      <c r="Q52">
         <v>250</v>
       </c>
-      <c r="O52" t="str">
-        <v/>
-      </c>
-      <c r="P52" t="str">
-        <v/>
-      </c>
-      <c r="Q52" t="str">
-        <v/>
-      </c>
       <c r="R52" t="str">
         <v/>
       </c>
       <c r="S52" t="str">
+        <v/>
+      </c>
+      <c r="T52" t="str">
+        <v/>
+      </c>
+      <c r="U52" t="str">
+        <v/>
+      </c>
+      <c r="V52" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3487,16 +3955,16 @@
         <v>Americas</v>
       </c>
       <c r="F53" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G53" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
-      <c r="I53" t="str">
-        <v/>
+      <c r="I53" t="b">
+        <v>1</v>
       </c>
       <c r="J53" t="str">
         <v/>
@@ -3510,22 +3978,31 @@
       <c r="M53" t="str">
         <v/>
       </c>
-      <c r="N53">
+      <c r="N53" t="str">
+        <v/>
+      </c>
+      <c r="O53" t="str">
+        <v/>
+      </c>
+      <c r="P53" t="str">
+        <v/>
+      </c>
+      <c r="Q53">
         <v>180</v>
       </c>
-      <c r="O53" t="str">
-        <v/>
-      </c>
-      <c r="P53" t="str">
-        <v/>
-      </c>
-      <c r="Q53" t="str">
-        <v/>
-      </c>
       <c r="R53" t="str">
         <v/>
       </c>
       <c r="S53" t="str">
+        <v/>
+      </c>
+      <c r="T53" t="str">
+        <v/>
+      </c>
+      <c r="U53" t="str">
+        <v/>
+      </c>
+      <c r="V53" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3546,32 +4023,32 @@
         <v>Americas</v>
       </c>
       <c r="F54" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G54" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
-      <c r="I54" t="str">
-        <v/>
+      <c r="I54" t="b">
+        <v>1</v>
       </c>
       <c r="J54" t="str">
         <v/>
       </c>
-      <c r="K54">
+      <c r="K54" t="str">
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <v/>
+      </c>
+      <c r="M54" t="str">
+        <v/>
+      </c>
+      <c r="N54">
         <v>150</v>
       </c>
-      <c r="L54" t="str">
-        <v/>
-      </c>
-      <c r="M54" t="str">
-        <v/>
-      </c>
-      <c r="N54" t="str">
-        <v/>
-      </c>
       <c r="O54" t="str">
         <v/>
       </c>
@@ -3585,6 +4062,15 @@
         <v/>
       </c>
       <c r="S54" t="str">
+        <v/>
+      </c>
+      <c r="T54" t="str">
+        <v/>
+      </c>
+      <c r="U54" t="str">
+        <v/>
+      </c>
+      <c r="V54" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3605,16 +4091,16 @@
         <v>EMEA</v>
       </c>
       <c r="F55" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G55" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
-      <c r="I55" t="str">
-        <v/>
+      <c r="I55" t="b">
+        <v>1</v>
       </c>
       <c r="J55" t="str">
         <v/>
@@ -3628,22 +4114,31 @@
       <c r="M55" t="str">
         <v/>
       </c>
-      <c r="N55">
+      <c r="N55" t="str">
+        <v/>
+      </c>
+      <c r="O55" t="str">
+        <v/>
+      </c>
+      <c r="P55" t="str">
+        <v/>
+      </c>
+      <c r="Q55">
         <v>50</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>50</v>
       </c>
-      <c r="P55">
+      <c r="S55">
         <v>60</v>
       </c>
-      <c r="Q55">
+      <c r="T55">
         <v>80</v>
       </c>
-      <c r="R55">
+      <c r="U55">
         <v>90</v>
       </c>
-      <c r="S55" t="str">
+      <c r="V55" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3664,29 +4159,29 @@
         <v>Americas</v>
       </c>
       <c r="F56" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G56" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+      <c r="K56" t="str">
+        <v/>
+      </c>
+      <c r="L56">
         <v>12</v>
       </c>
-      <c r="J56" t="str">
+      <c r="M56" t="str">
         <v>Standard</v>
       </c>
-      <c r="K56" t="str">
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <v/>
-      </c>
-      <c r="M56" t="str">
-        <v/>
-      </c>
       <c r="N56" t="str">
         <v/>
       </c>
@@ -3703,6 +4198,15 @@
         <v/>
       </c>
       <c r="S56" t="str">
+        <v/>
+      </c>
+      <c r="T56" t="str">
+        <v/>
+      </c>
+      <c r="U56" t="str">
+        <v/>
+      </c>
+      <c r="V56" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3723,29 +4227,29 @@
         <v>Americas</v>
       </c>
       <c r="F57" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G57" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+      <c r="L57">
         <v>10</v>
       </c>
-      <c r="J57" t="str">
+      <c r="M57" t="str">
         <v>Standard</v>
       </c>
-      <c r="K57" t="str">
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <v/>
-      </c>
-      <c r="M57" t="str">
-        <v/>
-      </c>
       <c r="N57" t="str">
         <v/>
       </c>
@@ -3762,6 +4266,15 @@
         <v/>
       </c>
       <c r="S57" t="str">
+        <v/>
+      </c>
+      <c r="T57" t="str">
+        <v/>
+      </c>
+      <c r="U57" t="str">
+        <v/>
+      </c>
+      <c r="V57" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3782,32 +4295,32 @@
         <v>Americas</v>
       </c>
       <c r="F58" t="str">
-        <v>2024-01-01</v>
+        <v>2025-04-01</v>
       </c>
       <c r="G58" t="str">
-        <v>2026-12-31</v>
+        <v>2026-03-31</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
       </c>
-      <c r="I58" t="str">
-        <v/>
+      <c r="I58" t="b">
+        <v>1</v>
       </c>
       <c r="J58" t="str">
         <v/>
       </c>
-      <c r="K58">
+      <c r="K58" t="str">
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <v/>
+      </c>
+      <c r="N58">
         <v>120</v>
       </c>
-      <c r="L58" t="str">
-        <v/>
-      </c>
-      <c r="M58" t="str">
-        <v/>
-      </c>
-      <c r="N58" t="str">
-        <v/>
-      </c>
       <c r="O58" t="str">
         <v/>
       </c>
@@ -3821,12 +4334,21 @@
         <v/>
       </c>
       <c r="S58" t="str">
+        <v/>
+      </c>
+      <c r="T58" t="str">
+        <v/>
+      </c>
+      <c r="U58" t="str">
+        <v/>
+      </c>
+      <c r="V58" t="str">
         <v>DA1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:S58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V58"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-data/Rate_Card_Test.xlsx
+++ b/test-data/Rate_Card_Test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,60 +413,63 @@
         <v>u_rate_card_sub_type</v>
       </c>
       <c r="D1" t="str">
+        <v>u_subkeys</v>
+      </c>
+      <c r="E1" t="str">
         <v>u_country</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>u_region</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>u_effective_from</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>effective_till</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>u_icb_flag</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>u_all_ibx</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>u_ibxs</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>u_excluded_ibxs</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>u_pricekva</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>u_minimum_cabinet_density</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>u_rate</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>u_amps</v>
       </c>
-      <c r="P1" t="str">
+      <c r="Q1" t="str">
         <v>u_volt</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="R1" t="str">
         <v>u_nrc</v>
       </c>
-      <c r="R1" t="str">
+      <c r="S1" t="str">
         <v>u_std_ntp_non_red</v>
       </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>u_std_ptp_non_red</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>u_ent_ntp_non_red</v>
       </c>
-      <c r="U1" t="str">
+      <c r="V1" t="str">
         <v>u_ent_ptp_non_red</v>
       </c>
-      <c r="V1" t="str">
+      <c r="W1" t="str">
         <v>IBX</v>
       </c>
     </row>
@@ -481,38 +484,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D2" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E2" t="str">
         <v>United States</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>Americas</v>
       </c>
-      <c r="F2" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G2" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
       </c>
       <c r="K2" t="str">
         <v/>
       </c>
-      <c r="L2">
+      <c r="L2" t="str">
+        <v/>
+      </c>
+      <c r="M2">
         <v>12</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <v>Standard</v>
       </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
       <c r="O2" t="str">
         <v/>
       </c>
@@ -535,6 +538,9 @@
         <v/>
       </c>
       <c r="V2" t="str">
+        <v/>
+      </c>
+      <c r="W2" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -549,38 +555,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D3" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E3" t="str">
         <v>United States</v>
       </c>
-      <c r="E3" t="str">
+      <c r="F3" t="str">
         <v>Americas</v>
       </c>
-      <c r="F3" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G3" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
       <c r="K3" t="str">
         <v/>
       </c>
-      <c r="L3">
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3">
         <v>15</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <v>High</v>
       </c>
-      <c r="N3" t="str">
-        <v/>
-      </c>
       <c r="O3" t="str">
         <v/>
       </c>
@@ -603,6 +609,9 @@
         <v/>
       </c>
       <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -617,25 +626,25 @@
         <v>Power Install NRC</v>
       </c>
       <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E4" t="str">
+      <c r="F4" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F4" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G4" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <v/>
@@ -646,18 +655,18 @@
       <c r="M4" t="str">
         <v/>
       </c>
-      <c r="N4">
+      <c r="N4" t="str">
+        <v/>
+      </c>
+      <c r="O4">
         <v>500</v>
       </c>
-      <c r="O4" t="str">
+      <c r="P4" t="str">
         <v>30</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <v>208</v>
       </c>
-      <c r="Q4" t="str">
-        <v/>
-      </c>
       <c r="R4" t="str">
         <v/>
       </c>
@@ -671,6 +680,9 @@
         <v/>
       </c>
       <c r="V4" t="str">
+        <v/>
+      </c>
+      <c r="W4" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -685,38 +697,38 @@
         <v>Secure Cabinet Express</v>
       </c>
       <c r="D5" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E5" t="str">
         <v>United States</v>
       </c>
-      <c r="E5" t="str">
+      <c r="F5" t="str">
         <v>Americas</v>
       </c>
-      <c r="F5" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G5" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H5" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
       <c r="K5" t="str">
         <v/>
       </c>
-      <c r="L5">
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5">
         <v>18</v>
       </c>
-      <c r="M5" t="str">
+      <c r="N5" t="str">
         <v>Standard</v>
       </c>
-      <c r="N5" t="str">
-        <v/>
-      </c>
       <c r="O5" t="str">
         <v/>
       </c>
@@ -739,6 +751,9 @@
         <v/>
       </c>
       <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -753,25 +768,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
         <v>United States</v>
       </c>
-      <c r="E6" t="str">
+      <c r="F6" t="str">
         <v>Americas</v>
       </c>
-      <c r="F6" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G6" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H6" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
       </c>
       <c r="K6" t="str">
         <v/>
@@ -791,12 +806,12 @@
       <c r="P6" t="str">
         <v/>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6">
         <v>200</v>
       </c>
-      <c r="R6" t="str">
-        <v/>
-      </c>
       <c r="S6" t="str">
         <v/>
       </c>
@@ -807,6 +822,9 @@
         <v/>
       </c>
       <c r="V6" t="str">
+        <v/>
+      </c>
+      <c r="W6" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -821,25 +839,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E7" t="str">
+      <c r="F7" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F7" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G7" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H7" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
       <c r="K7" t="str">
         <v/>
@@ -859,12 +877,12 @@
       <c r="P7" t="str">
         <v/>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7">
         <v>250</v>
       </c>
-      <c r="R7" t="str">
-        <v/>
-      </c>
       <c r="S7" t="str">
         <v/>
       </c>
@@ -875,6 +893,9 @@
         <v/>
       </c>
       <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -889,25 +910,25 @@
         <v>Interconnection</v>
       </c>
       <c r="D8" t="str">
+        <v>Single-Mode Fiber,Multi-Mode Fiber,UTP,COAX,POTS</v>
+      </c>
+      <c r="E8" t="str">
         <v>United States</v>
       </c>
-      <c r="E8" t="str">
+      <c r="F8" t="str">
         <v>Americas</v>
       </c>
-      <c r="F8" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G8" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
       </c>
       <c r="K8" t="str">
         <v/>
@@ -927,12 +948,12 @@
       <c r="P8" t="str">
         <v/>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8">
         <v>180</v>
       </c>
-      <c r="R8" t="str">
-        <v/>
-      </c>
       <c r="S8" t="str">
         <v/>
       </c>
@@ -943,6 +964,9 @@
         <v/>
       </c>
       <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -957,25 +981,25 @@
         <v>Smart Hands</v>
       </c>
       <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
         <v>United States</v>
       </c>
-      <c r="E9" t="str">
+      <c r="F9" t="str">
         <v>Americas</v>
       </c>
-      <c r="F9" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G9" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H9" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
       <c r="K9" t="str">
         <v/>
@@ -986,12 +1010,12 @@
       <c r="M9" t="str">
         <v/>
       </c>
-      <c r="N9">
+      <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9">
         <v>150</v>
       </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
       <c r="P9" t="str">
         <v/>
       </c>
@@ -1011,6 +1035,9 @@
         <v/>
       </c>
       <c r="V9" t="str">
+        <v/>
+      </c>
+      <c r="W9" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1025,25 +1052,25 @@
         <v>Equinix Precision Time</v>
       </c>
       <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E10" t="str">
+      <c r="F10" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F10" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G10" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H10" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
       <c r="K10" t="str">
         <v/>
@@ -1063,22 +1090,25 @@
       <c r="P10" t="str">
         <v/>
       </c>
-      <c r="Q10">
-        <v>50</v>
+      <c r="Q10" t="str">
+        <v/>
       </c>
       <c r="R10">
         <v>50</v>
       </c>
       <c r="S10">
+        <v>50</v>
+      </c>
+      <c r="T10">
         <v>60</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>80</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>90</v>
       </c>
-      <c r="V10" t="str">
+      <c r="W10" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1093,38 +1123,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D11" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E11" t="str">
         <v>United States</v>
       </c>
-      <c r="E11" t="str">
+      <c r="F11" t="str">
         <v>Americas</v>
       </c>
-      <c r="F11" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G11" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H11" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
       </c>
       <c r="K11" t="str">
         <v/>
       </c>
-      <c r="L11">
+      <c r="L11" t="str">
+        <v/>
+      </c>
+      <c r="M11">
         <v>12</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <v>Standard</v>
       </c>
-      <c r="N11" t="str">
-        <v/>
-      </c>
       <c r="O11" t="str">
         <v/>
       </c>
@@ -1147,6 +1177,9 @@
         <v/>
       </c>
       <c r="V11" t="str">
+        <v/>
+      </c>
+      <c r="W11" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1161,38 +1194,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D12" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E12" t="str">
         <v>United States</v>
       </c>
-      <c r="E12" t="str">
+      <c r="F12" t="str">
         <v>Americas</v>
       </c>
-      <c r="F12" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G12" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H12" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
       <c r="K12" t="str">
         <v/>
       </c>
-      <c r="L12">
+      <c r="L12" t="str">
+        <v/>
+      </c>
+      <c r="M12">
         <v>15</v>
       </c>
-      <c r="M12" t="str">
+      <c r="N12" t="str">
         <v>High</v>
       </c>
-      <c r="N12" t="str">
-        <v/>
-      </c>
       <c r="O12" t="str">
         <v/>
       </c>
@@ -1215,6 +1248,9 @@
         <v/>
       </c>
       <c r="V12" t="str">
+        <v/>
+      </c>
+      <c r="W12" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1229,25 +1265,25 @@
         <v>Power Install NRC</v>
       </c>
       <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E13" t="str">
+      <c r="F13" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F13" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G13" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H13" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
       </c>
       <c r="K13" t="str">
         <v/>
@@ -1258,18 +1294,18 @@
       <c r="M13" t="str">
         <v/>
       </c>
-      <c r="N13">
+      <c r="N13" t="str">
+        <v/>
+      </c>
+      <c r="O13">
         <v>500</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <v>30</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
         <v>208</v>
       </c>
-      <c r="Q13" t="str">
-        <v/>
-      </c>
       <c r="R13" t="str">
         <v/>
       </c>
@@ -1283,6 +1319,9 @@
         <v/>
       </c>
       <c r="V13" t="str">
+        <v/>
+      </c>
+      <c r="W13" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1297,38 +1336,38 @@
         <v>Secure Cabinet Express</v>
       </c>
       <c r="D14" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E14" t="str">
         <v>United States</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <v>Americas</v>
       </c>
-      <c r="F14" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G14" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
       <c r="K14" t="str">
         <v/>
       </c>
-      <c r="L14">
+      <c r="L14" t="str">
+        <v/>
+      </c>
+      <c r="M14">
         <v>18</v>
       </c>
-      <c r="M14" t="str">
+      <c r="N14" t="str">
         <v>Standard</v>
       </c>
-      <c r="N14" t="str">
-        <v/>
-      </c>
       <c r="O14" t="str">
         <v/>
       </c>
@@ -1351,6 +1390,9 @@
         <v/>
       </c>
       <c r="V14" t="str">
+        <v/>
+      </c>
+      <c r="W14" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1365,25 +1407,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
         <v>United States</v>
       </c>
-      <c r="E15" t="str">
+      <c r="F15" t="str">
         <v>Americas</v>
       </c>
-      <c r="F15" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G15" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
       </c>
       <c r="K15" t="str">
         <v/>
@@ -1403,12 +1445,12 @@
       <c r="P15" t="str">
         <v/>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15">
         <v>200</v>
       </c>
-      <c r="R15" t="str">
-        <v/>
-      </c>
       <c r="S15" t="str">
         <v/>
       </c>
@@ -1419,6 +1461,9 @@
         <v/>
       </c>
       <c r="V15" t="str">
+        <v/>
+      </c>
+      <c r="W15" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1433,25 +1478,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E16" t="str">
+      <c r="F16" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F16" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G16" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H16" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
       </c>
       <c r="K16" t="str">
         <v/>
@@ -1471,12 +1516,12 @@
       <c r="P16" t="str">
         <v/>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16">
         <v>250</v>
       </c>
-      <c r="R16" t="str">
-        <v/>
-      </c>
       <c r="S16" t="str">
         <v/>
       </c>
@@ -1487,6 +1532,9 @@
         <v/>
       </c>
       <c r="V16" t="str">
+        <v/>
+      </c>
+      <c r="W16" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1501,25 +1549,25 @@
         <v>Interconnection</v>
       </c>
       <c r="D17" t="str">
+        <v>Single-Mode Fiber,Multi-Mode Fiber,UTP,COAX,POTS</v>
+      </c>
+      <c r="E17" t="str">
         <v>United States</v>
       </c>
-      <c r="E17" t="str">
+      <c r="F17" t="str">
         <v>Americas</v>
       </c>
-      <c r="F17" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G17" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H17" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
       <c r="K17" t="str">
         <v/>
@@ -1539,12 +1587,12 @@
       <c r="P17" t="str">
         <v/>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17">
         <v>180</v>
       </c>
-      <c r="R17" t="str">
-        <v/>
-      </c>
       <c r="S17" t="str">
         <v/>
       </c>
@@ -1555,6 +1603,9 @@
         <v/>
       </c>
       <c r="V17" t="str">
+        <v/>
+      </c>
+      <c r="W17" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1569,25 +1620,25 @@
         <v>Smart Hands</v>
       </c>
       <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
         <v>United States</v>
       </c>
-      <c r="E18" t="str">
+      <c r="F18" t="str">
         <v>Americas</v>
       </c>
-      <c r="F18" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G18" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H18" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
       </c>
       <c r="K18" t="str">
         <v/>
@@ -1598,12 +1649,12 @@
       <c r="M18" t="str">
         <v/>
       </c>
-      <c r="N18">
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18">
         <v>150</v>
       </c>
-      <c r="O18" t="str">
-        <v/>
-      </c>
       <c r="P18" t="str">
         <v/>
       </c>
@@ -1623,6 +1674,9 @@
         <v/>
       </c>
       <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1637,25 +1691,25 @@
         <v>Equinix Precision Time</v>
       </c>
       <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E19" t="str">
+      <c r="F19" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F19" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G19" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
       </c>
       <c r="K19" t="str">
         <v/>
@@ -1675,22 +1729,25 @@
       <c r="P19" t="str">
         <v/>
       </c>
-      <c r="Q19">
-        <v>50</v>
+      <c r="Q19" t="str">
+        <v/>
       </c>
       <c r="R19">
         <v>50</v>
       </c>
       <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
         <v>60</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>80</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>90</v>
       </c>
-      <c r="V19" t="str">
+      <c r="W19" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1705,38 +1762,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D20" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E20" t="str">
         <v>United States</v>
       </c>
-      <c r="E20" t="str">
+      <c r="F20" t="str">
         <v>Americas</v>
       </c>
-      <c r="F20" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G20" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H20" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
       <c r="K20" t="str">
         <v/>
       </c>
-      <c r="L20">
+      <c r="L20" t="str">
+        <v/>
+      </c>
+      <c r="M20">
         <v>12</v>
       </c>
-      <c r="M20" t="str">
+      <c r="N20" t="str">
         <v>Standard</v>
       </c>
-      <c r="N20" t="str">
-        <v/>
-      </c>
       <c r="O20" t="str">
         <v/>
       </c>
@@ -1759,6 +1816,9 @@
         <v/>
       </c>
       <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1773,38 +1833,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D21" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E21" t="str">
         <v>United States</v>
       </c>
-      <c r="E21" t="str">
+      <c r="F21" t="str">
         <v>Americas</v>
       </c>
-      <c r="F21" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G21" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H21" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
       </c>
       <c r="K21" t="str">
         <v/>
       </c>
-      <c r="L21">
+      <c r="L21" t="str">
+        <v/>
+      </c>
+      <c r="M21">
         <v>15</v>
       </c>
-      <c r="M21" t="str">
+      <c r="N21" t="str">
         <v>High</v>
       </c>
-      <c r="N21" t="str">
-        <v/>
-      </c>
       <c r="O21" t="str">
         <v/>
       </c>
@@ -1827,6 +1887,9 @@
         <v/>
       </c>
       <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1841,25 +1904,25 @@
         <v>Power Install NRC</v>
       </c>
       <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E22" t="str">
+      <c r="F22" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F22" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G22" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H22" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
       </c>
       <c r="K22" t="str">
         <v/>
@@ -1870,18 +1933,18 @@
       <c r="M22" t="str">
         <v/>
       </c>
-      <c r="N22">
+      <c r="N22" t="str">
+        <v/>
+      </c>
+      <c r="O22">
         <v>500</v>
       </c>
-      <c r="O22" t="str">
+      <c r="P22" t="str">
         <v>30</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
         <v>208</v>
       </c>
-      <c r="Q22" t="str">
-        <v/>
-      </c>
       <c r="R22" t="str">
         <v/>
       </c>
@@ -1895,6 +1958,9 @@
         <v/>
       </c>
       <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1909,38 +1975,38 @@
         <v>Secure Cabinet Express</v>
       </c>
       <c r="D23" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E23" t="str">
         <v>United States</v>
       </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
         <v>Americas</v>
       </c>
-      <c r="F23" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G23" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H23" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
       </c>
       <c r="K23" t="str">
         <v/>
       </c>
-      <c r="L23">
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23">
         <v>18</v>
       </c>
-      <c r="M23" t="str">
+      <c r="N23" t="str">
         <v>Standard</v>
       </c>
-      <c r="N23" t="str">
-        <v/>
-      </c>
       <c r="O23" t="str">
         <v/>
       </c>
@@ -1963,6 +2029,9 @@
         <v/>
       </c>
       <c r="V23" t="str">
+        <v/>
+      </c>
+      <c r="W23" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -1977,25 +2046,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
         <v>United States</v>
       </c>
-      <c r="E24" t="str">
+      <c r="F24" t="str">
         <v>Americas</v>
       </c>
-      <c r="F24" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G24" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H24" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
       <c r="K24" t="str">
         <v/>
@@ -2015,12 +2084,12 @@
       <c r="P24" t="str">
         <v/>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24">
         <v>200</v>
       </c>
-      <c r="R24" t="str">
-        <v/>
-      </c>
       <c r="S24" t="str">
         <v/>
       </c>
@@ -2031,6 +2100,9 @@
         <v/>
       </c>
       <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2045,25 +2117,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E25" t="str">
+      <c r="F25" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F25" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G25" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H25" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
       </c>
       <c r="K25" t="str">
         <v/>
@@ -2083,12 +2155,12 @@
       <c r="P25" t="str">
         <v/>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25">
         <v>250</v>
       </c>
-      <c r="R25" t="str">
-        <v/>
-      </c>
       <c r="S25" t="str">
         <v/>
       </c>
@@ -2099,6 +2171,9 @@
         <v/>
       </c>
       <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2113,25 +2188,25 @@
         <v>Interconnection</v>
       </c>
       <c r="D26" t="str">
+        <v>Single-Mode Fiber,Multi-Mode Fiber,UTP,COAX,POTS</v>
+      </c>
+      <c r="E26" t="str">
         <v>United States</v>
       </c>
-      <c r="E26" t="str">
+      <c r="F26" t="str">
         <v>Americas</v>
       </c>
-      <c r="F26" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G26" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
       </c>
       <c r="K26" t="str">
         <v/>
@@ -2151,12 +2226,12 @@
       <c r="P26" t="str">
         <v/>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26">
         <v>180</v>
       </c>
-      <c r="R26" t="str">
-        <v/>
-      </c>
       <c r="S26" t="str">
         <v/>
       </c>
@@ -2167,6 +2242,9 @@
         <v/>
       </c>
       <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2181,25 +2259,25 @@
         <v>Smart Hands</v>
       </c>
       <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
         <v>United States</v>
       </c>
-      <c r="E27" t="str">
+      <c r="F27" t="str">
         <v>Americas</v>
       </c>
-      <c r="F27" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G27" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H27" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
       </c>
       <c r="K27" t="str">
         <v/>
@@ -2210,12 +2288,12 @@
       <c r="M27" t="str">
         <v/>
       </c>
-      <c r="N27">
+      <c r="N27" t="str">
+        <v/>
+      </c>
+      <c r="O27">
         <v>150</v>
       </c>
-      <c r="O27" t="str">
-        <v/>
-      </c>
       <c r="P27" t="str">
         <v/>
       </c>
@@ -2235,6 +2313,9 @@
         <v/>
       </c>
       <c r="V27" t="str">
+        <v/>
+      </c>
+      <c r="W27" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2249,25 +2330,25 @@
         <v>Equinix Precision Time</v>
       </c>
       <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E28" t="str">
+      <c r="F28" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F28" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G28" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
       </c>
       <c r="K28" t="str">
         <v/>
@@ -2287,22 +2368,25 @@
       <c r="P28" t="str">
         <v/>
       </c>
-      <c r="Q28">
-        <v>50</v>
+      <c r="Q28" t="str">
+        <v/>
       </c>
       <c r="R28">
         <v>50</v>
       </c>
       <c r="S28">
+        <v>50</v>
+      </c>
+      <c r="T28">
         <v>60</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>80</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>90</v>
       </c>
-      <c r="V28" t="str">
+      <c r="W28" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2317,38 +2401,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D29" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E29" t="str">
         <v>United States</v>
       </c>
-      <c r="E29" t="str">
+      <c r="F29" t="str">
         <v>Americas</v>
       </c>
-      <c r="F29" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G29" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H29" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
       <c r="K29" t="str">
         <v/>
       </c>
-      <c r="L29">
+      <c r="L29" t="str">
+        <v/>
+      </c>
+      <c r="M29">
         <v>12</v>
       </c>
-      <c r="M29" t="str">
+      <c r="N29" t="str">
         <v>Standard</v>
       </c>
-      <c r="N29" t="str">
-        <v/>
-      </c>
       <c r="O29" t="str">
         <v/>
       </c>
@@ -2371,6 +2455,9 @@
         <v/>
       </c>
       <c r="V29" t="str">
+        <v/>
+      </c>
+      <c r="W29" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2385,38 +2472,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D30" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E30" t="str">
         <v>United States</v>
       </c>
-      <c r="E30" t="str">
+      <c r="F30" t="str">
         <v>Americas</v>
       </c>
-      <c r="F30" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G30" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H30" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
       </c>
       <c r="K30" t="str">
         <v/>
       </c>
-      <c r="L30">
+      <c r="L30" t="str">
+        <v/>
+      </c>
+      <c r="M30">
         <v>15</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <v>High</v>
       </c>
-      <c r="N30" t="str">
-        <v/>
-      </c>
       <c r="O30" t="str">
         <v/>
       </c>
@@ -2439,6 +2526,9 @@
         <v/>
       </c>
       <c r="V30" t="str">
+        <v/>
+      </c>
+      <c r="W30" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2453,25 +2543,25 @@
         <v>Power Install NRC</v>
       </c>
       <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E31" t="str">
+      <c r="F31" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F31" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G31" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H31" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
       </c>
       <c r="K31" t="str">
         <v/>
@@ -2482,18 +2572,18 @@
       <c r="M31" t="str">
         <v/>
       </c>
-      <c r="N31">
+      <c r="N31" t="str">
+        <v/>
+      </c>
+      <c r="O31">
         <v>500</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <v>30</v>
       </c>
-      <c r="P31" t="str">
+      <c r="Q31" t="str">
         <v>208</v>
       </c>
-      <c r="Q31" t="str">
-        <v/>
-      </c>
       <c r="R31" t="str">
         <v/>
       </c>
@@ -2507,6 +2597,9 @@
         <v/>
       </c>
       <c r="V31" t="str">
+        <v/>
+      </c>
+      <c r="W31" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2521,38 +2614,38 @@
         <v>Secure Cabinet Express</v>
       </c>
       <c r="D32" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E32" t="str">
         <v>United States</v>
       </c>
-      <c r="E32" t="str">
+      <c r="F32" t="str">
         <v>Americas</v>
       </c>
-      <c r="F32" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G32" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
       </c>
       <c r="K32" t="str">
         <v/>
       </c>
-      <c r="L32">
+      <c r="L32" t="str">
+        <v/>
+      </c>
+      <c r="M32">
         <v>18</v>
       </c>
-      <c r="M32" t="str">
+      <c r="N32" t="str">
         <v>Standard</v>
       </c>
-      <c r="N32" t="str">
-        <v/>
-      </c>
       <c r="O32" t="str">
         <v/>
       </c>
@@ -2575,6 +2668,9 @@
         <v/>
       </c>
       <c r="V32" t="str">
+        <v/>
+      </c>
+      <c r="W32" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2589,25 +2685,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
         <v>United States</v>
       </c>
-      <c r="E33" t="str">
+      <c r="F33" t="str">
         <v>Americas</v>
       </c>
-      <c r="F33" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G33" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H33" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
       </c>
       <c r="K33" t="str">
         <v/>
@@ -2627,12 +2723,12 @@
       <c r="P33" t="str">
         <v/>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="str">
+        <v/>
+      </c>
+      <c r="R33">
         <v>200</v>
       </c>
-      <c r="R33" t="str">
-        <v/>
-      </c>
       <c r="S33" t="str">
         <v/>
       </c>
@@ -2643,6 +2739,9 @@
         <v/>
       </c>
       <c r="V33" t="str">
+        <v/>
+      </c>
+      <c r="W33" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2657,25 +2756,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E34" t="str">
+      <c r="F34" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F34" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G34" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H34" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
       </c>
       <c r="K34" t="str">
         <v/>
@@ -2695,12 +2794,12 @@
       <c r="P34" t="str">
         <v/>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="str">
+        <v/>
+      </c>
+      <c r="R34">
         <v>250</v>
       </c>
-      <c r="R34" t="str">
-        <v/>
-      </c>
       <c r="S34" t="str">
         <v/>
       </c>
@@ -2711,6 +2810,9 @@
         <v/>
       </c>
       <c r="V34" t="str">
+        <v/>
+      </c>
+      <c r="W34" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2725,25 +2827,25 @@
         <v>Interconnection</v>
       </c>
       <c r="D35" t="str">
+        <v>Single-Mode Fiber,Multi-Mode Fiber,UTP,COAX,POTS</v>
+      </c>
+      <c r="E35" t="str">
         <v>United States</v>
       </c>
-      <c r="E35" t="str">
+      <c r="F35" t="str">
         <v>Americas</v>
       </c>
-      <c r="F35" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G35" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
       </c>
       <c r="K35" t="str">
         <v/>
@@ -2763,12 +2865,12 @@
       <c r="P35" t="str">
         <v/>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="str">
+        <v/>
+      </c>
+      <c r="R35">
         <v>180</v>
       </c>
-      <c r="R35" t="str">
-        <v/>
-      </c>
       <c r="S35" t="str">
         <v/>
       </c>
@@ -2779,6 +2881,9 @@
         <v/>
       </c>
       <c r="V35" t="str">
+        <v/>
+      </c>
+      <c r="W35" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2793,25 +2898,25 @@
         <v>Smart Hands</v>
       </c>
       <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
         <v>United States</v>
       </c>
-      <c r="E36" t="str">
+      <c r="F36" t="str">
         <v>Americas</v>
       </c>
-      <c r="F36" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G36" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H36" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
       <c r="K36" t="str">
         <v/>
@@ -2822,12 +2927,12 @@
       <c r="M36" t="str">
         <v/>
       </c>
-      <c r="N36">
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36">
         <v>150</v>
       </c>
-      <c r="O36" t="str">
-        <v/>
-      </c>
       <c r="P36" t="str">
         <v/>
       </c>
@@ -2847,6 +2952,9 @@
         <v/>
       </c>
       <c r="V36" t="str">
+        <v/>
+      </c>
+      <c r="W36" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2861,25 +2969,25 @@
         <v>Equinix Precision Time</v>
       </c>
       <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E37" t="str">
+      <c r="F37" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F37" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G37" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H37" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
       </c>
       <c r="K37" t="str">
         <v/>
@@ -2899,22 +3007,25 @@
       <c r="P37" t="str">
         <v/>
       </c>
-      <c r="Q37">
-        <v>50</v>
+      <c r="Q37" t="str">
+        <v/>
       </c>
       <c r="R37">
         <v>50</v>
       </c>
       <c r="S37">
+        <v>50</v>
+      </c>
+      <c r="T37">
         <v>60</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>80</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>90</v>
       </c>
-      <c r="V37" t="str">
+      <c r="W37" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2929,38 +3040,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D38" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E38" t="str">
         <v>United States</v>
       </c>
-      <c r="E38" t="str">
+      <c r="F38" t="str">
         <v>Americas</v>
       </c>
-      <c r="F38" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G38" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
       </c>
       <c r="K38" t="str">
         <v/>
       </c>
-      <c r="L38">
+      <c r="L38" t="str">
+        <v/>
+      </c>
+      <c r="M38">
         <v>12</v>
       </c>
-      <c r="M38" t="str">
+      <c r="N38" t="str">
         <v>Standard</v>
       </c>
-      <c r="N38" t="str">
-        <v/>
-      </c>
       <c r="O38" t="str">
         <v/>
       </c>
@@ -2983,6 +3094,9 @@
         <v/>
       </c>
       <c r="V38" t="str">
+        <v/>
+      </c>
+      <c r="W38" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -2997,38 +3111,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D39" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E39" t="str">
         <v>United States</v>
       </c>
-      <c r="E39" t="str">
+      <c r="F39" t="str">
         <v>Americas</v>
       </c>
-      <c r="F39" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G39" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H39" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
       </c>
       <c r="K39" t="str">
         <v/>
       </c>
-      <c r="L39">
+      <c r="L39" t="str">
+        <v/>
+      </c>
+      <c r="M39">
         <v>15</v>
       </c>
-      <c r="M39" t="str">
+      <c r="N39" t="str">
         <v>High</v>
       </c>
-      <c r="N39" t="str">
-        <v/>
-      </c>
       <c r="O39" t="str">
         <v/>
       </c>
@@ -3051,6 +3165,9 @@
         <v/>
       </c>
       <c r="V39" t="str">
+        <v/>
+      </c>
+      <c r="W39" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3065,25 +3182,25 @@
         <v>Power Install NRC</v>
       </c>
       <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E40" t="str">
+      <c r="F40" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F40" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G40" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H40" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
       </c>
       <c r="K40" t="str">
         <v/>
@@ -3094,18 +3211,18 @@
       <c r="M40" t="str">
         <v/>
       </c>
-      <c r="N40">
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40">
         <v>500</v>
       </c>
-      <c r="O40" t="str">
+      <c r="P40" t="str">
         <v>30</v>
       </c>
-      <c r="P40" t="str">
+      <c r="Q40" t="str">
         <v>208</v>
       </c>
-      <c r="Q40" t="str">
-        <v/>
-      </c>
       <c r="R40" t="str">
         <v/>
       </c>
@@ -3119,6 +3236,9 @@
         <v/>
       </c>
       <c r="V40" t="str">
+        <v/>
+      </c>
+      <c r="W40" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3133,38 +3253,38 @@
         <v>Secure Cabinet Express</v>
       </c>
       <c r="D41" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E41" t="str">
         <v>United States</v>
       </c>
-      <c r="E41" t="str">
+      <c r="F41" t="str">
         <v>Americas</v>
       </c>
-      <c r="F41" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G41" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H41" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
       </c>
       <c r="K41" t="str">
         <v/>
       </c>
-      <c r="L41">
+      <c r="L41" t="str">
+        <v/>
+      </c>
+      <c r="M41">
         <v>18</v>
       </c>
-      <c r="M41" t="str">
+      <c r="N41" t="str">
         <v>Standard</v>
       </c>
-      <c r="N41" t="str">
-        <v/>
-      </c>
       <c r="O41" t="str">
         <v/>
       </c>
@@ -3187,6 +3307,9 @@
         <v/>
       </c>
       <c r="V41" t="str">
+        <v/>
+      </c>
+      <c r="W41" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3201,25 +3324,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
         <v>United States</v>
       </c>
-      <c r="E42" t="str">
+      <c r="F42" t="str">
         <v>Americas</v>
       </c>
-      <c r="F42" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G42" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H42" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
       </c>
       <c r="K42" t="str">
         <v/>
@@ -3239,12 +3362,12 @@
       <c r="P42" t="str">
         <v/>
       </c>
-      <c r="Q42">
+      <c r="Q42" t="str">
+        <v/>
+      </c>
+      <c r="R42">
         <v>200</v>
       </c>
-      <c r="R42" t="str">
-        <v/>
-      </c>
       <c r="S42" t="str">
         <v/>
       </c>
@@ -3255,6 +3378,9 @@
         <v/>
       </c>
       <c r="V42" t="str">
+        <v/>
+      </c>
+      <c r="W42" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3269,25 +3395,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E43" t="str">
+      <c r="F43" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F43" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G43" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H43" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
       </c>
       <c r="K43" t="str">
         <v/>
@@ -3307,12 +3433,12 @@
       <c r="P43" t="str">
         <v/>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="str">
+        <v/>
+      </c>
+      <c r="R43">
         <v>250</v>
       </c>
-      <c r="R43" t="str">
-        <v/>
-      </c>
       <c r="S43" t="str">
         <v/>
       </c>
@@ -3323,6 +3449,9 @@
         <v/>
       </c>
       <c r="V43" t="str">
+        <v/>
+      </c>
+      <c r="W43" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3337,25 +3466,25 @@
         <v>Interconnection</v>
       </c>
       <c r="D44" t="str">
+        <v>Single-Mode Fiber,Multi-Mode Fiber,UTP,COAX,POTS</v>
+      </c>
+      <c r="E44" t="str">
         <v>United States</v>
       </c>
-      <c r="E44" t="str">
+      <c r="F44" t="str">
         <v>Americas</v>
       </c>
-      <c r="F44" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G44" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H44" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
       <c r="K44" t="str">
         <v/>
@@ -3375,12 +3504,12 @@
       <c r="P44" t="str">
         <v/>
       </c>
-      <c r="Q44">
+      <c r="Q44" t="str">
+        <v/>
+      </c>
+      <c r="R44">
         <v>180</v>
       </c>
-      <c r="R44" t="str">
-        <v/>
-      </c>
       <c r="S44" t="str">
         <v/>
       </c>
@@ -3391,6 +3520,9 @@
         <v/>
       </c>
       <c r="V44" t="str">
+        <v/>
+      </c>
+      <c r="W44" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3405,25 +3537,25 @@
         <v>Smart Hands</v>
       </c>
       <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
         <v>United States</v>
       </c>
-      <c r="E45" t="str">
+      <c r="F45" t="str">
         <v>Americas</v>
       </c>
-      <c r="F45" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G45" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H45" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
       <c r="K45" t="str">
         <v/>
@@ -3434,12 +3566,12 @@
       <c r="M45" t="str">
         <v/>
       </c>
-      <c r="N45">
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45">
         <v>150</v>
       </c>
-      <c r="O45" t="str">
-        <v/>
-      </c>
       <c r="P45" t="str">
         <v/>
       </c>
@@ -3459,6 +3591,9 @@
         <v/>
       </c>
       <c r="V45" t="str">
+        <v/>
+      </c>
+      <c r="W45" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3473,25 +3608,25 @@
         <v>Equinix Precision Time</v>
       </c>
       <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E46" t="str">
+      <c r="F46" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F46" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G46" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H46" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
       </c>
       <c r="K46" t="str">
         <v/>
@@ -3511,22 +3646,25 @@
       <c r="P46" t="str">
         <v/>
       </c>
-      <c r="Q46">
-        <v>50</v>
+      <c r="Q46" t="str">
+        <v/>
       </c>
       <c r="R46">
         <v>50</v>
       </c>
       <c r="S46">
+        <v>50</v>
+      </c>
+      <c r="T46">
         <v>60</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>80</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>90</v>
       </c>
-      <c r="V46" t="str">
+      <c r="W46" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3541,38 +3679,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D47" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E47" t="str">
         <v>United States</v>
       </c>
-      <c r="E47" t="str">
+      <c r="F47" t="str">
         <v>Americas</v>
       </c>
-      <c r="F47" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G47" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H47" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
       </c>
       <c r="K47" t="str">
         <v/>
       </c>
-      <c r="L47">
+      <c r="L47" t="str">
+        <v/>
+      </c>
+      <c r="M47">
         <v>12</v>
       </c>
-      <c r="M47" t="str">
+      <c r="N47" t="str">
         <v>Standard</v>
       </c>
-      <c r="N47" t="str">
-        <v/>
-      </c>
       <c r="O47" t="str">
         <v/>
       </c>
@@ -3595,6 +3733,9 @@
         <v/>
       </c>
       <c r="V47" t="str">
+        <v/>
+      </c>
+      <c r="W47" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3609,38 +3750,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D48" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E48" t="str">
         <v>United States</v>
       </c>
-      <c r="E48" t="str">
+      <c r="F48" t="str">
         <v>Americas</v>
       </c>
-      <c r="F48" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G48" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H48" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
       </c>
       <c r="K48" t="str">
         <v/>
       </c>
-      <c r="L48">
+      <c r="L48" t="str">
+        <v/>
+      </c>
+      <c r="M48">
         <v>15</v>
       </c>
-      <c r="M48" t="str">
+      <c r="N48" t="str">
         <v>High</v>
       </c>
-      <c r="N48" t="str">
-        <v/>
-      </c>
       <c r="O48" t="str">
         <v/>
       </c>
@@ -3663,6 +3804,9 @@
         <v/>
       </c>
       <c r="V48" t="str">
+        <v/>
+      </c>
+      <c r="W48" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3677,25 +3821,25 @@
         <v>Power Install NRC</v>
       </c>
       <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E49" t="str">
+      <c r="F49" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F49" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G49" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H49" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
       </c>
       <c r="K49" t="str">
         <v/>
@@ -3706,18 +3850,18 @@
       <c r="M49" t="str">
         <v/>
       </c>
-      <c r="N49">
+      <c r="N49" t="str">
+        <v/>
+      </c>
+      <c r="O49">
         <v>500</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <v>30</v>
       </c>
-      <c r="P49" t="str">
+      <c r="Q49" t="str">
         <v>208</v>
       </c>
-      <c r="Q49" t="str">
-        <v/>
-      </c>
       <c r="R49" t="str">
         <v/>
       </c>
@@ -3731,6 +3875,9 @@
         <v/>
       </c>
       <c r="V49" t="str">
+        <v/>
+      </c>
+      <c r="W49" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3745,38 +3892,38 @@
         <v>Secure Cabinet Express</v>
       </c>
       <c r="D50" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E50" t="str">
         <v>United States</v>
       </c>
-      <c r="E50" t="str">
+      <c r="F50" t="str">
         <v>Americas</v>
       </c>
-      <c r="F50" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G50" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H50" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
       </c>
       <c r="K50" t="str">
         <v/>
       </c>
-      <c r="L50">
+      <c r="L50" t="str">
+        <v/>
+      </c>
+      <c r="M50">
         <v>18</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <v>Standard</v>
       </c>
-      <c r="N50" t="str">
-        <v/>
-      </c>
       <c r="O50" t="str">
         <v/>
       </c>
@@ -3799,6 +3946,9 @@
         <v/>
       </c>
       <c r="V50" t="str">
+        <v/>
+      </c>
+      <c r="W50" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3813,25 +3963,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
         <v>United States</v>
       </c>
-      <c r="E51" t="str">
+      <c r="F51" t="str">
         <v>Americas</v>
       </c>
-      <c r="F51" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G51" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H51" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
       <c r="K51" t="str">
         <v/>
@@ -3851,12 +4001,12 @@
       <c r="P51" t="str">
         <v/>
       </c>
-      <c r="Q51">
+      <c r="Q51" t="str">
+        <v/>
+      </c>
+      <c r="R51">
         <v>200</v>
       </c>
-      <c r="R51" t="str">
-        <v/>
-      </c>
       <c r="S51" t="str">
         <v/>
       </c>
@@ -3867,6 +4017,9 @@
         <v/>
       </c>
       <c r="V51" t="str">
+        <v/>
+      </c>
+      <c r="W51" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3881,25 +4034,25 @@
         <v>Cabinet Install NRC</v>
       </c>
       <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E52" t="str">
+      <c r="F52" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F52" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G52" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H52" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
       </c>
       <c r="K52" t="str">
         <v/>
@@ -3919,12 +4072,12 @@
       <c r="P52" t="str">
         <v/>
       </c>
-      <c r="Q52">
+      <c r="Q52" t="str">
+        <v/>
+      </c>
+      <c r="R52">
         <v>250</v>
       </c>
-      <c r="R52" t="str">
-        <v/>
-      </c>
       <c r="S52" t="str">
         <v/>
       </c>
@@ -3935,6 +4088,9 @@
         <v/>
       </c>
       <c r="V52" t="str">
+        <v/>
+      </c>
+      <c r="W52" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -3949,25 +4105,25 @@
         <v>Interconnection</v>
       </c>
       <c r="D53" t="str">
+        <v>Single-Mode Fiber,Multi-Mode Fiber,UTP,COAX,POTS</v>
+      </c>
+      <c r="E53" t="str">
         <v>United States</v>
       </c>
-      <c r="E53" t="str">
+      <c r="F53" t="str">
         <v>Americas</v>
       </c>
-      <c r="F53" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G53" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H53" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
       </c>
       <c r="K53" t="str">
         <v/>
@@ -3987,12 +4143,12 @@
       <c r="P53" t="str">
         <v/>
       </c>
-      <c r="Q53">
+      <c r="Q53" t="str">
+        <v/>
+      </c>
+      <c r="R53">
         <v>180</v>
       </c>
-      <c r="R53" t="str">
-        <v/>
-      </c>
       <c r="S53" t="str">
         <v/>
       </c>
@@ -4003,6 +4159,9 @@
         <v/>
       </c>
       <c r="V53" t="str">
+        <v/>
+      </c>
+      <c r="W53" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -4017,25 +4176,25 @@
         <v>Smart Hands</v>
       </c>
       <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
         <v>United States</v>
       </c>
-      <c r="E54" t="str">
+      <c r="F54" t="str">
         <v>Americas</v>
       </c>
-      <c r="F54" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G54" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H54" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
       </c>
       <c r="K54" t="str">
         <v/>
@@ -4046,12 +4205,12 @@
       <c r="M54" t="str">
         <v/>
       </c>
-      <c r="N54">
+      <c r="N54" t="str">
+        <v/>
+      </c>
+      <c r="O54">
         <v>150</v>
       </c>
-      <c r="O54" t="str">
-        <v/>
-      </c>
       <c r="P54" t="str">
         <v/>
       </c>
@@ -4071,6 +4230,9 @@
         <v/>
       </c>
       <c r="V54" t="str">
+        <v/>
+      </c>
+      <c r="W54" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -4085,25 +4247,25 @@
         <v>Equinix Precision Time</v>
       </c>
       <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
         <v>United Kingdom</v>
       </c>
-      <c r="E55" t="str">
+      <c r="F55" t="str">
         <v>EMEA</v>
       </c>
-      <c r="F55" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G55" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H55" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
       </c>
       <c r="K55" t="str">
         <v/>
@@ -4123,22 +4285,25 @@
       <c r="P55" t="str">
         <v/>
       </c>
-      <c r="Q55">
-        <v>50</v>
+      <c r="Q55" t="str">
+        <v/>
       </c>
       <c r="R55">
         <v>50</v>
       </c>
       <c r="S55">
+        <v>50</v>
+      </c>
+      <c r="T55">
         <v>60</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>80</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>90</v>
       </c>
-      <c r="V55" t="str">
+      <c r="W55" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -4153,38 +4318,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D56" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E56" t="str">
         <v>United States</v>
       </c>
-      <c r="E56" t="str">
+      <c r="F56" t="str">
         <v>Americas</v>
       </c>
-      <c r="F56" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G56" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H56" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="str">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
       </c>
       <c r="K56" t="str">
         <v/>
       </c>
-      <c r="L56">
+      <c r="L56" t="str">
+        <v/>
+      </c>
+      <c r="M56">
         <v>12</v>
       </c>
-      <c r="M56" t="str">
+      <c r="N56" t="str">
         <v>Standard</v>
       </c>
-      <c r="N56" t="str">
-        <v/>
-      </c>
       <c r="O56" t="str">
         <v/>
       </c>
@@ -4207,6 +4372,9 @@
         <v/>
       </c>
       <c r="V56" t="str">
+        <v/>
+      </c>
+      <c r="W56" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -4221,38 +4389,38 @@
         <v>Space &amp; Power</v>
       </c>
       <c r="D57" t="str">
+        <v>kVA</v>
+      </c>
+      <c r="E57" t="str">
         <v>United States</v>
       </c>
-      <c r="E57" t="str">
+      <c r="F57" t="str">
         <v>Americas</v>
       </c>
-      <c r="F57" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G57" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H57" t="b">
-        <v>1</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H57" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
       </c>
-      <c r="J57" t="str">
-        <v/>
+      <c r="J57" t="b">
+        <v>1</v>
       </c>
       <c r="K57" t="str">
         <v/>
       </c>
-      <c r="L57">
+      <c r="L57" t="str">
+        <v/>
+      </c>
+      <c r="M57">
         <v>10</v>
       </c>
-      <c r="M57" t="str">
+      <c r="N57" t="str">
         <v>Standard</v>
       </c>
-      <c r="N57" t="str">
-        <v/>
-      </c>
       <c r="O57" t="str">
         <v/>
       </c>
@@ -4275,6 +4443,9 @@
         <v/>
       </c>
       <c r="V57" t="str">
+        <v/>
+      </c>
+      <c r="W57" t="str">
         <v>DA1</v>
       </c>
     </row>
@@ -4289,25 +4460,25 @@
         <v>Smart Hands</v>
       </c>
       <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
         <v>United States</v>
       </c>
-      <c r="E58" t="str">
+      <c r="F58" t="str">
         <v>Americas</v>
       </c>
-      <c r="F58" t="str">
-        <v>2025-04-01</v>
-      </c>
       <c r="G58" t="str">
-        <v>2026-03-31</v>
-      </c>
-      <c r="H58" t="b">
-        <v>1</v>
+        <v>2025-04-01</v>
+      </c>
+      <c r="H58" t="str">
+        <v>2026-03-31</v>
       </c>
       <c r="I58" t="b">
         <v>1</v>
       </c>
-      <c r="J58" t="str">
-        <v/>
+      <c r="J58" t="b">
+        <v>1</v>
       </c>
       <c r="K58" t="str">
         <v/>
@@ -4318,12 +4489,12 @@
       <c r="M58" t="str">
         <v/>
       </c>
-      <c r="N58">
+      <c r="N58" t="str">
+        <v/>
+      </c>
+      <c r="O58">
         <v>120</v>
       </c>
-      <c r="O58" t="str">
-        <v/>
-      </c>
       <c r="P58" t="str">
         <v/>
       </c>
@@ -4343,12 +4514,15 @@
         <v/>
       </c>
       <c r="V58" t="str">
+        <v/>
+      </c>
+      <c r="W58" t="str">
         <v>DA1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W58"/>
   </ignoredErrors>
 </worksheet>
 </file>